--- a/shorelines 2020-03/Shoreline_Analysis_Results.xlsx
+++ b/shorelines 2020-03/Shoreline_Analysis_Results.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\DCP\db-pluto-research\shorelines 2020-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{831EC372-FC97-4BD2-8803-2B28500D1253}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE04039-CA04-409C-9CF9-0D2EE34A1467}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096"/>
+    <workbookView xWindow="4208" yWindow="3398" windowWidth="16200" windowHeight="9397" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Area Totals" sheetId="2" r:id="rId1"/>
     <sheet name="Breakout by LandUse" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -77,12 +85,6 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>Current MapPLUTO (20v2)</t>
-  </si>
-  <si>
-    <t>Current MapPLUTO (non-Queens)</t>
-  </si>
-  <si>
     <t>Clipped to LIDAR</t>
   </si>
   <si>
@@ -96,14 +98,20 @@
   </si>
   <si>
     <t>Difference MapPLUTO &amp; LIdAR</t>
+  </si>
+  <si>
+    <t>Current Clipped MapPLUTO (20v2)</t>
+  </si>
+  <si>
+    <t>Current Clipped MapPLUTO (Queens excluded)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -585,7 +593,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -940,26 +948,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.796875" customWidth="1"/>
     <col min="2" max="2" width="17.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.1328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.73046875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
@@ -968,13 +976,13 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -1005,7 +1013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1041,13 +1049,13 @@
         <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
